--- a/data/trans_orig/P36B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0B1E4FD-4544-4CE5-A877-4A57EFEE3D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{00330D83-B023-451C-A93F-37963CA9C1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{44781868-B5D3-4434-8E5F-EC772ED19F67}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54DB21B5-DE86-413E-8959-740D7164C310}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="714">
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2007 (Tasa respuesta: 99,91%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="704">
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -85,2074 +85,2044 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,94%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>47,35%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2015 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>2,43%</t>
   </si>
   <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,74%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>47,2%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumición de carne en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>37,2%</t>
   </si>
   <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>40,65%</t>
   </si>
   <si>
-    <t>38,95%</t>
+    <t>42,35%</t>
   </si>
   <si>
     <t>43,96%</t>
   </si>
   <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
   </si>
   <si>
     <t>14,59%</t>
@@ -2161,7 +2131,7 @@
     <t>13,39%</t>
   </si>
   <si>
-    <t>15,86%</t>
+    <t>15,85%</t>
   </si>
   <si>
     <t>14,1%</t>
@@ -2170,16 +2140,16 @@
     <t>12,92%</t>
   </si>
   <si>
-    <t>15,39%</t>
+    <t>15,41%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
   </si>
 </sst>
 </file>
@@ -2591,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F64DB2-4A3C-4A09-A282-9CAA928E3007}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F28398E-D2BD-40E6-9EA8-78591C1C73DA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3059,7 +3029,7 @@
         <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3074,13 +3044,13 @@
         <v>25228</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -3089,13 +3059,13 @@
         <v>21476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -3104,13 +3074,13 @@
         <v>46704</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3125,13 +3095,13 @@
         <v>185737</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>233</v>
@@ -3140,13 +3110,13 @@
         <v>236527</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -3155,13 +3125,13 @@
         <v>422264</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3146,13 @@
         <v>288087</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>294</v>
@@ -3191,13 +3161,13 @@
         <v>297652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>579</v>
@@ -3206,13 +3176,13 @@
         <v>585739</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3197,13 @@
         <v>76679</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -3242,13 +3212,13 @@
         <v>19015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -3257,13 +3227,13 @@
         <v>95695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3289,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3331,13 +3301,13 @@
         <v>5850</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3346,13 +3316,13 @@
         <v>11969</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3361,13 +3331,13 @@
         <v>17819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3352,13 @@
         <v>34911</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -3397,13 +3367,13 @@
         <v>48165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3520,7 +3490,7 @@
         <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3505,13 @@
         <v>74674</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3550,13 +3520,13 @@
         <v>30375</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -3565,13 +3535,13 @@
         <v>105049</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,7 +3597,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3639,13 +3609,13 @@
         <v>9506</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3654,13 +3624,13 @@
         <v>10826</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -3669,13 +3639,13 @@
         <v>20332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3660,13 @@
         <v>27736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -3705,13 +3675,13 @@
         <v>34042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -3720,13 +3690,13 @@
         <v>61778</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3711,13 @@
         <v>316412</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H24" s="7">
         <v>348</v>
@@ -3756,13 +3726,13 @@
         <v>340258</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M24" s="7">
         <v>649</v>
@@ -3771,13 +3741,13 @@
         <v>656670</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3762,13 @@
         <v>286210</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -3807,13 +3777,13 @@
         <v>281393</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>552</v>
@@ -3822,13 +3792,13 @@
         <v>567603</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3813,13 @@
         <v>37876</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3858,13 +3828,13 @@
         <v>17322</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -3873,13 +3843,13 @@
         <v>55198</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,7 +3905,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3947,13 +3917,13 @@
         <v>10814</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -3962,13 +3932,13 @@
         <v>20190</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -3977,13 +3947,13 @@
         <v>31004</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,13 +3968,13 @@
         <v>45284</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
@@ -4013,13 +3983,13 @@
         <v>65971</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -4028,13 +3998,13 @@
         <v>111254</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,7 +4106,7 @@
         <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4121,13 @@
         <v>60011</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -4166,13 +4136,13 @@
         <v>53512</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>110</v>
@@ -4181,13 +4151,13 @@
         <v>113523</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,13 +4225,13 @@
         <v>28153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>232</v>
+        <v>107</v>
       </c>
       <c r="H34" s="7">
         <v>44</v>
@@ -4270,10 +4240,10 @@
         <v>44795</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>235</v>
@@ -4288,7 +4258,7 @@
         <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>237</v>
@@ -4375,10 +4345,10 @@
         <v>250</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>2790</v>
@@ -4387,13 +4357,13 @@
         <v>2853331</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4378,13 @@
         <v>1523094</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H37" s="7">
         <v>1472</v>
@@ -4423,13 +4393,13 @@
         <v>1497868</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>163</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>2965</v>
@@ -4438,13 +4408,13 @@
         <v>3020962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4429,13 @@
         <v>269850</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H38" s="7">
         <v>116</v>
@@ -4474,13 +4444,13 @@
         <v>122906</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>66</v>
+        <v>267</v>
       </c>
       <c r="M38" s="7">
         <v>378</v>
@@ -4489,13 +4459,13 @@
         <v>392756</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="P38" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,7 +4521,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4572,7 +4542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5964FE-69A6-49C0-A923-50806178383E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D37D0-4918-45C7-BF7B-BF86CC1EF868}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4589,7 +4559,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4696,13 +4666,13 @@
         <v>2521</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4711,13 +4681,13 @@
         <v>3483</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4726,13 +4696,13 @@
         <v>6004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4747,13 +4717,13 @@
         <v>12406</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4762,13 +4732,13 @@
         <v>14376</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -4777,13 +4747,13 @@
         <v>26782</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4768,13 @@
         <v>38778</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -4813,13 +4783,13 @@
         <v>41242</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>78</v>
@@ -4828,13 +4798,13 @@
         <v>80020</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4819,13 @@
         <v>48865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -4864,13 +4834,13 @@
         <v>44184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>85</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -4879,13 +4849,13 @@
         <v>93048</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4870,13 @@
         <v>12328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -4915,13 +4885,13 @@
         <v>8620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -4930,13 +4900,13 @@
         <v>20948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5004,13 +4974,13 @@
         <v>4535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5019,13 +4989,13 @@
         <v>6290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5034,13 +5004,13 @@
         <v>10825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,13 +5025,13 @@
         <v>51173</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -5070,13 +5040,13 @@
         <v>60587</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -5085,13 +5055,13 @@
         <v>111760</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,10 +5076,10 @@
         <v>241944</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>332</v>
@@ -5178,7 +5148,7 @@
         <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>171</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -5187,13 +5157,13 @@
         <v>479824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5178,13 @@
         <v>49336</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -5223,7 +5193,7 @@
         <v>28460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>351</v>
@@ -5238,13 +5208,13 @@
         <v>77796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,7 +5270,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5312,13 +5282,13 @@
         <v>2059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5327,13 +5297,13 @@
         <v>7521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5342,13 +5312,13 @@
         <v>9581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5333,13 @@
         <v>65155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5378,13 +5348,13 @@
         <v>100528</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
@@ -5393,13 +5363,13 @@
         <v>165683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5414,13 +5384,13 @@
         <v>382725</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H18" s="7">
         <v>390</v>
@@ -5429,13 +5399,13 @@
         <v>427143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M18" s="7">
         <v>743</v>
@@ -5444,13 +5414,13 @@
         <v>809868</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>374</v>
+        <v>175</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5435,13 @@
         <v>489183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H19" s="7">
         <v>373</v>
@@ -5480,28 +5450,28 @@
         <v>410536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M19" s="7">
         <v>823</v>
       </c>
       <c r="N19" s="7">
-        <v>899719</v>
+        <v>899720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5486,13 @@
         <v>69705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>387</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -5531,13 +5501,13 @@
         <v>83247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -5546,13 +5516,13 @@
         <v>152953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,7 +5564,7 @@
         <v>1866</v>
       </c>
       <c r="N21" s="7">
-        <v>2037803</v>
+        <v>2037804</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -5608,7 +5578,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5620,13 +5590,13 @@
         <v>10657</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5635,13 +5605,13 @@
         <v>11246</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>53</v>
+        <v>357</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -5650,13 +5620,13 @@
         <v>21903</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>396</v>
+        <v>318</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5671,13 +5641,13 @@
         <v>38628</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>403</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -5686,13 +5656,13 @@
         <v>57489</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>405</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>406</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>399</v>
+        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -5701,13 +5671,13 @@
         <v>96116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>241</v>
+        <v>115</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>400</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5722,13 +5692,13 @@
         <v>297124</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H24" s="7">
         <v>322</v>
@@ -5737,13 +5707,13 @@
         <v>352659</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="M24" s="7">
         <v>594</v>
@@ -5752,13 +5722,13 @@
         <v>649783</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>409</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5743,13 @@
         <v>344808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>411</v>
+        <v>336</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -5788,13 +5758,13 @@
         <v>312617</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M25" s="7">
         <v>599</v>
@@ -5803,13 +5773,13 @@
         <v>657425</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>417</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5794,13 @@
         <v>63280</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>418</v>
+        <v>355</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>419</v>
+        <v>24</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -5839,13 +5809,13 @@
         <v>39979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>246</v>
+        <v>423</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>421</v>
+        <v>265</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>352</v>
+        <v>424</v>
       </c>
       <c r="M26" s="7">
         <v>94</v>
@@ -5854,13 +5824,13 @@
         <v>103260</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>424</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5916,7 +5886,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5928,13 +5898,13 @@
         <v>10637</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>426</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -5943,13 +5913,13 @@
         <v>17001</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>428</v>
+        <v>320</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>429</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -5958,13 +5928,13 @@
         <v>27638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>432</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,7 +5970,7 @@
         <v>437</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="M29" s="7">
         <v>155</v>
@@ -6009,13 +5979,13 @@
         <v>163382</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6030,13 +6000,13 @@
         <v>369435</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H30" s="7">
         <v>460</v>
@@ -6045,13 +6015,13 @@
         <v>480656</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M30" s="7">
         <v>809</v>
@@ -6060,13 +6030,13 @@
         <v>850091</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6051,13 @@
         <v>418256</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="H31" s="7">
         <v>383</v>
@@ -6096,13 +6066,13 @@
         <v>402589</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>372</v>
       </c>
       <c r="M31" s="7">
         <v>788</v>
@@ -6114,10 +6084,10 @@
         <v>342</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,10 +6102,10 @@
         <v>76656</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>457</v>
+        <v>270</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>458</v>
@@ -6147,13 +6117,13 @@
         <v>54146</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>246</v>
+        <v>423</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>15</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>459</v>
+        <v>205</v>
       </c>
       <c r="M32" s="7">
         <v>131</v>
@@ -6162,13 +6132,13 @@
         <v>130802</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,13 +6206,13 @@
         <v>30408</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>231</v>
+        <v>66</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="H34" s="7">
         <v>40</v>
@@ -6251,13 +6221,13 @@
         <v>45541</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>108</v>
+        <v>318</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>466</v>
+        <v>314</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -6266,10 +6236,10 @@
         <v>75950</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>468</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>237</v>
@@ -6287,13 +6257,13 @@
         <v>238201</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H35" s="7">
         <v>300</v>
@@ -6302,13 +6272,13 @@
         <v>325523</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>265</v>
+        <v>467</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M35" s="7">
         <v>516</v>
@@ -6317,13 +6287,13 @@
         <v>563723</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>475</v>
+        <v>436</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6308,13 @@
         <v>1330006</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H36" s="7">
         <v>1442</v>
@@ -6353,13 +6323,13 @@
         <v>1549362</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="M36" s="7">
         <v>2684</v>
@@ -6368,13 +6338,13 @@
         <v>2879368</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6359,13 @@
         <v>1540703</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H37" s="7">
         <v>1306</v>
@@ -6404,13 +6374,13 @@
         <v>1410159</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="M37" s="7">
         <v>2758</v>
@@ -6419,13 +6389,13 @@
         <v>2950862</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6410,13 @@
         <v>271306</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H38" s="7">
         <v>199</v>
@@ -6455,13 +6425,13 @@
         <v>214452</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>496</v>
+        <v>54</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>74</v>
+        <v>491</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M38" s="7">
         <v>456</v>
@@ -6470,13 +6440,13 @@
         <v>485758</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>324</v>
+        <v>69</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6532,7 +6502,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -6553,7 +6523,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878EB10D-4AF3-44EC-A94C-31181C8AA338}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD45A6B-755B-4917-8910-F676809426B9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6570,7 +6540,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6683,7 +6653,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6692,13 +6662,13 @@
         <v>897</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6707,13 +6677,13 @@
         <v>897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>142</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +6698,13 @@
         <v>2933</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>112</v>
+        <v>399</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6743,13 +6713,13 @@
         <v>3097</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6758,13 +6728,13 @@
         <v>6030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>504</v>
+        <v>397</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>468</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,13 +6749,13 @@
         <v>41618</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -6794,13 +6764,13 @@
         <v>46319</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M6" s="7">
         <v>89</v>
@@ -6809,13 +6779,13 @@
         <v>87937</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>513</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,13 +6800,13 @@
         <v>64096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -6845,13 +6815,13 @@
         <v>54718</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -6860,13 +6830,13 @@
         <v>118814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>521</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6851,13 @@
         <v>5403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6896,13 +6866,13 @@
         <v>7514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -6911,13 +6881,13 @@
         <v>12917</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>525</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>435</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,13 +6955,13 @@
         <v>3811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -7000,13 +6970,13 @@
         <v>7957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>534</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -7015,13 +6985,13 @@
         <v>11768</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,13 +7006,13 @@
         <v>17593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>539</v>
+        <v>114</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -7051,13 +7021,13 @@
         <v>27669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>540</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -7066,13 +7036,13 @@
         <v>45263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7057,13 @@
         <v>208407</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H12" s="7">
         <v>237</v>
@@ -7102,13 +7072,13 @@
         <v>242025</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="M12" s="7">
         <v>439</v>
@@ -7117,13 +7087,13 @@
         <v>450432</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>553</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7108,13 @@
         <v>257554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>555</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="H13" s="7">
         <v>222</v>
@@ -7153,13 +7123,13 @@
         <v>223558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M13" s="7">
         <v>469</v>
@@ -7168,13 +7138,13 @@
         <v>481113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7159,13 @@
         <v>66643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -7204,13 +7174,13 @@
         <v>56400</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>388</v>
+        <v>501</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>566</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -7219,13 +7189,13 @@
         <v>123043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,7 +7251,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7293,13 +7263,13 @@
         <v>3617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -7308,13 +7278,13 @@
         <v>13135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>575</v>
+        <v>53</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7323,13 +7293,13 @@
         <v>16752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>465</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7344,13 +7314,13 @@
         <v>17544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>319</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>67</v>
+        <v>571</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7359,13 +7329,13 @@
         <v>35026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>578</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -7374,13 +7344,13 @@
         <v>52570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>581</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>582</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,13 +7365,13 @@
         <v>376405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
@@ -7410,13 +7380,13 @@
         <v>418817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>561</v>
+        <v>477</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M18" s="7">
         <v>739</v>
@@ -7425,13 +7395,13 @@
         <v>795222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7416,13 @@
         <v>452964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>591</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H19" s="7">
         <v>390</v>
@@ -7461,13 +7431,13 @@
         <v>413502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M19" s="7">
         <v>810</v>
@@ -7476,13 +7446,13 @@
         <v>866466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7467,13 @@
         <v>169948</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -7512,13 +7482,13 @@
         <v>160309</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M20" s="7">
         <v>311</v>
@@ -7527,13 +7497,13 @@
         <v>330257</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,7 +7559,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7601,13 +7571,13 @@
         <v>4298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>607</v>
+        <v>233</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>609</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -7616,13 +7586,13 @@
         <v>7193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>193</v>
+        <v>535</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -7634,10 +7604,10 @@
         <v>23</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>611</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>612</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,13 +7622,13 @@
         <v>29803</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>276</v>
+        <v>603</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -7667,13 +7637,13 @@
         <v>33619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -7682,13 +7652,13 @@
         <v>63422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>619</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>620</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7703,13 +7673,13 @@
         <v>204035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="H24" s="7">
         <v>231</v>
@@ -7718,13 +7688,13 @@
         <v>248706</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -7733,13 +7703,13 @@
         <v>452741</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>36</v>
+        <v>614</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7724,13 @@
         <v>362308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>617</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>301</v>
+        <v>619</v>
       </c>
       <c r="H25" s="7">
         <v>308</v>
@@ -7769,13 +7739,13 @@
         <v>326551</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>213</v>
+        <v>620</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="M25" s="7">
         <v>642</v>
@@ -7784,13 +7754,13 @@
         <v>688860</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>633</v>
+        <v>295</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7775,13 @@
         <v>154398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -7820,13 +7790,13 @@
         <v>167893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="M26" s="7">
         <v>300</v>
@@ -7835,13 +7805,13 @@
         <v>322291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,7 +7867,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7912,10 +7882,10 @@
         <v>61</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>644</v>
+        <v>110</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>193</v>
+        <v>634</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -7924,13 +7894,13 @@
         <v>12373</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>275</v>
+        <v>532</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -7939,13 +7909,13 @@
         <v>22038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>647</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>648</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7930,13 @@
         <v>32453</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>582</v>
+        <v>403</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>649</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>46</v>
@@ -7975,13 +7945,13 @@
         <v>48537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -7990,13 +7960,13 @@
         <v>80990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>25</v>
+        <v>641</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +7981,13 @@
         <v>330751</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="H30" s="7">
         <v>419</v>
@@ -8026,13 +7996,13 @@
         <v>453978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>492</v>
+        <v>646</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="M30" s="7">
         <v>750</v>
@@ -8041,13 +8011,13 @@
         <v>784729</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>375</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8032,13 @@
         <v>464666</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="H31" s="7">
         <v>381</v>
@@ -8077,13 +8047,13 @@
         <v>418509</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="M31" s="7">
         <v>841</v>
@@ -8092,13 +8062,13 @@
         <v>883175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>490</v>
+        <v>658</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8083,13 @@
         <v>96270</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -8128,13 +8098,13 @@
         <v>106426</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>473</v>
+        <v>663</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="M32" s="7">
         <v>193</v>
@@ -8143,13 +8113,13 @@
         <v>202695</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8217,13 +8187,13 @@
         <v>21392</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>502</v>
+        <v>316</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>677</v>
+        <v>109</v>
       </c>
       <c r="H34" s="7">
         <v>38</v>
@@ -8232,13 +8202,13 @@
         <v>41554</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M34" s="7">
         <v>59</v>
@@ -8247,13 +8217,13 @@
         <v>62946</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>392</v>
+        <v>499</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8268,13 +8238,13 @@
         <v>100326</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>22</v>
+        <v>674</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>683</v>
+        <v>160</v>
       </c>
       <c r="H35" s="7">
         <v>138</v>
@@ -8283,13 +8253,13 @@
         <v>147949</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -8298,13 +8268,13 @@
         <v>248275</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>687</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>688</v>
+        <v>525</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>157</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +8289,13 @@
         <v>1161215</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="H36" s="7">
         <v>1323</v>
@@ -8334,13 +8304,13 @@
         <v>1409845</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>692</v>
+        <v>577</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="M36" s="7">
         <v>2434</v>
@@ -8349,13 +8319,13 @@
         <v>2571060</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8370,13 +8340,13 @@
         <v>1601587</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="H37" s="7">
         <v>1357</v>
@@ -8385,13 +8355,13 @@
         <v>1436840</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>701</v>
+        <v>337</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>173</v>
+        <v>691</v>
       </c>
       <c r="M37" s="7">
         <v>2880</v>
@@ -8400,13 +8370,13 @@
         <v>3038427</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8421,13 +8391,13 @@
         <v>492660</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="H38" s="7">
         <v>472</v>
@@ -8436,13 +8406,13 @@
         <v>498542</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="M38" s="7">
         <v>938</v>
@@ -8451,13 +8421,13 @@
         <v>991203</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,7 +8483,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00330D83-B023-451C-A93F-37963CA9C1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A49E83E-C656-4CE5-97EA-8F38FBEA4DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{54DB21B5-DE86-413E-8959-740D7164C310}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1255B6DE-B3C1-4035-B19D-83068BC3DC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="721">
   <si>
     <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -85,13 +85,13 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,97%</t>
+    <t>3,16%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,95%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -100,2056 +100,2107 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>53,85%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
     <t>0,75%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,34%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,17%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>47,1%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
   </si>
   <si>
     <t>3,59%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>45,09%</t>
   </si>
   <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>49,49%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>35,93%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>45,63%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
   </si>
   <si>
     <t>14,1%</t>
   </si>
   <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F28398E-D2BD-40E6-9EA8-78591C1C73DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008693C-EAF9-43EC-8FF3-0657F620E37B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3319,10 +3370,10 @@
         <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3331,13 +3382,13 @@
         <v>17819</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3352,13 +3403,13 @@
         <v>34911</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -3367,13 +3418,13 @@
         <v>48165</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3382,13 +3433,13 @@
         <v>83075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3454,13 @@
         <v>380736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>411</v>
@@ -3418,13 +3469,13 @@
         <v>442768</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>765</v>
@@ -3433,13 +3484,13 @@
         <v>823505</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3505,13 @@
         <v>464644</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>412</v>
@@ -3469,13 +3520,13 @@
         <v>433057</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>844</v>
@@ -3484,13 +3535,13 @@
         <v>897701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3556,13 @@
         <v>74674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3520,13 +3571,13 @@
         <v>30375</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -3535,13 +3586,13 @@
         <v>105049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,7 +3648,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3609,13 +3660,13 @@
         <v>9506</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -3624,13 +3675,13 @@
         <v>10826</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>20</v>
@@ -3639,13 +3690,13 @@
         <v>20332</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3660,13 +3711,13 @@
         <v>27736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
         <v>35</v>
@@ -3675,13 +3726,13 @@
         <v>34042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -3690,13 +3741,13 @@
         <v>61778</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3762,13 @@
         <v>316412</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>348</v>
@@ -3726,13 +3777,13 @@
         <v>340258</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>649</v>
@@ -3741,13 +3792,13 @@
         <v>656670</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3813,13 @@
         <v>286210</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -3777,13 +3828,13 @@
         <v>281393</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>552</v>
@@ -3792,13 +3843,13 @@
         <v>567603</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3864,13 @@
         <v>37876</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3828,13 +3879,13 @@
         <v>17322</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>54</v>
@@ -3846,10 +3897,10 @@
         <v>73</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,7 +3956,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3917,13 +3968,13 @@
         <v>10814</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -3932,13 +3983,13 @@
         <v>20190</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -3947,13 +3998,13 @@
         <v>31004</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +4019,13 @@
         <v>45284</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
@@ -3983,13 +4034,13 @@
         <v>65971</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -3998,13 +4049,13 @@
         <v>111254</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4070,13 @@
         <v>392561</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>460</v>
@@ -4034,13 +4085,13 @@
         <v>478632</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>873</v>
@@ -4049,13 +4100,13 @@
         <v>871194</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4121,13 @@
         <v>432697</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>408</v>
@@ -4085,13 +4136,13 @@
         <v>420308</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>869</v>
@@ -4100,13 +4151,13 @@
         <v>853005</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4172,13 @@
         <v>60011</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -4136,13 +4187,13 @@
         <v>53512</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>110</v>
@@ -4151,13 +4202,13 @@
         <v>113523</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4276,13 @@
         <v>28153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>44</v>
@@ -4240,13 +4291,13 @@
         <v>44795</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M34" s="7">
         <v>69</v>
@@ -4255,13 +4306,13 @@
         <v>72947</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4327,13 @@
         <v>137767</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H35" s="7">
         <v>165</v>
@@ -4291,13 +4342,13 @@
         <v>172369</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -4306,13 +4357,13 @@
         <v>310136</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4378,13 @@
         <v>1314131</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>1498</v>
@@ -4342,13 +4393,13 @@
         <v>1539200</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>2790</v>
@@ -4357,13 +4408,13 @@
         <v>2853331</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4429,13 @@
         <v>1523094</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>1472</v>
@@ -4393,13 +4444,13 @@
         <v>1497868</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>163</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>258</v>
+        <v>169</v>
       </c>
       <c r="M37" s="7">
         <v>2965</v>
@@ -4408,13 +4459,13 @@
         <v>3020962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4480,13 @@
         <v>269850</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H38" s="7">
         <v>116</v>
@@ -4444,13 +4495,13 @@
         <v>122906</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M38" s="7">
         <v>378</v>
@@ -4459,13 +4510,13 @@
         <v>392756</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,7 +4572,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4542,7 +4593,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D37D0-4918-45C7-BF7B-BF86CC1EF868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A822BAB4-537A-4792-A08C-4D45C63A99C5}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4559,7 +4610,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4666,13 +4717,13 @@
         <v>2521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4681,13 +4732,13 @@
         <v>3483</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -4696,13 +4747,13 @@
         <v>6004</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4717,13 +4768,13 @@
         <v>12406</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -4732,13 +4783,13 @@
         <v>14376</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -4747,13 +4798,13 @@
         <v>26782</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4819,13 @@
         <v>38778</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H6" s="7">
         <v>36</v>
@@ -4783,13 +4834,13 @@
         <v>41242</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="M6" s="7">
         <v>78</v>
@@ -4798,13 +4849,13 @@
         <v>80020</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4870,13 @@
         <v>48865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -4834,13 +4885,13 @@
         <v>44184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -4849,13 +4900,13 @@
         <v>93048</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4921,13 @@
         <v>12328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -4885,13 +4936,13 @@
         <v>8620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>308</v>
+        <v>70</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -4900,13 +4951,13 @@
         <v>20948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +5025,13 @@
         <v>4535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -4989,13 +5040,13 @@
         <v>6290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5004,13 +5055,13 @@
         <v>10825</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5076,13 @@
         <v>51173</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -5040,13 +5091,13 @@
         <v>60587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -5055,13 +5106,13 @@
         <v>111760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5127,13 @@
         <v>241944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
         <v>234</v>
@@ -5091,13 +5142,13 @@
         <v>247662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>460</v>
@@ -5106,13 +5157,13 @@
         <v>489606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5178,13 @@
         <v>239591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -5142,13 +5193,13 @@
         <v>240233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -5157,13 +5208,13 @@
         <v>479824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>346</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5229,13 @@
         <v>49336</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -5193,13 +5244,13 @@
         <v>28460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -5208,13 +5259,13 @@
         <v>77796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,13 +5333,13 @@
         <v>2059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5297,13 +5348,13 @@
         <v>7521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>53</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>359</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5312,13 +5363,13 @@
         <v>9581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5384,13 @@
         <v>65155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>27</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5348,13 +5399,13 @@
         <v>100528</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
@@ -5363,13 +5414,13 @@
         <v>165683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5435,13 @@
         <v>382725</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>390</v>
@@ -5399,13 +5450,13 @@
         <v>427143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>743</v>
@@ -5414,13 +5465,13 @@
         <v>809868</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>175</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5486,13 @@
         <v>489183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H19" s="7">
         <v>373</v>
@@ -5450,13 +5501,13 @@
         <v>410536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M19" s="7">
         <v>823</v>
@@ -5465,13 +5516,13 @@
         <v>899720</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>254</v>
+        <v>385</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5537,13 @@
         <v>69705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -5501,10 +5552,10 @@
         <v>83247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>390</v>
+        <v>276</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>391</v>
@@ -5578,7 +5629,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5590,13 +5641,13 @@
         <v>10657</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>397</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5605,13 +5656,13 @@
         <v>11246</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>357</v>
+        <v>23</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -5620,13 +5671,13 @@
         <v>21903</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,13 +5692,13 @@
         <v>38628</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -5656,13 +5707,13 @@
         <v>57489</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -5671,13 +5722,13 @@
         <v>96116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>349</v>
+        <v>406</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5743,13 @@
         <v>297124</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="H24" s="7">
         <v>322</v>
@@ -5707,13 +5758,13 @@
         <v>352659</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M24" s="7">
         <v>594</v>
@@ -5722,13 +5773,13 @@
         <v>649783</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>416</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5794,13 @@
         <v>344808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>336</v>
+        <v>418</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -5758,13 +5809,13 @@
         <v>312617</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>599</v>
@@ -5773,13 +5824,13 @@
         <v>657425</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>86</v>
+        <v>424</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5845,13 @@
         <v>63280</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>24</v>
+        <v>226</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -5809,13 +5860,13 @@
         <v>39979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>117</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>424</v>
+        <v>285</v>
       </c>
       <c r="M26" s="7">
         <v>94</v>
@@ -5824,13 +5875,13 @@
         <v>103260</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>325</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,7 +5937,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5898,13 +5949,13 @@
         <v>10637</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>319</v>
+        <v>432</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -5913,13 +5964,13 @@
         <v>17001</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -5928,13 +5979,13 @@
         <v>27638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>432</v>
+        <v>110</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +6000,13 @@
         <v>70840</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>434</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -5964,13 +6015,13 @@
         <v>92542</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M29" s="7">
         <v>155</v>
@@ -5979,13 +6030,13 @@
         <v>163382</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6051,13 @@
         <v>369435</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="H30" s="7">
         <v>460</v>
@@ -6015,13 +6066,13 @@
         <v>480656</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="M30" s="7">
         <v>809</v>
@@ -6030,13 +6081,13 @@
         <v>850091</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>452</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6102,13 @@
         <v>418256</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="H31" s="7">
         <v>383</v>
@@ -6066,13 +6117,13 @@
         <v>402589</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>372</v>
+        <v>460</v>
       </c>
       <c r="M31" s="7">
         <v>788</v>
@@ -6081,13 +6132,13 @@
         <v>820845</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6153,13 @@
         <v>76656</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>270</v>
+        <v>464</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -6117,13 +6168,13 @@
         <v>54146</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>15</v>
+        <v>466</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>205</v>
+        <v>467</v>
       </c>
       <c r="M32" s="7">
         <v>131</v>
@@ -6132,13 +6183,13 @@
         <v>130802</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>460</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,13 +6257,13 @@
         <v>30408</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>66</v>
+        <v>395</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>461</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>40</v>
@@ -6221,13 +6272,13 @@
         <v>45541</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>318</v>
+        <v>110</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>314</v>
+        <v>472</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -6236,13 +6287,13 @@
         <v>75950</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>150</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6308,13 @@
         <v>238201</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>305</v>
+        <v>475</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="H35" s="7">
         <v>300</v>
@@ -6272,13 +6323,13 @@
         <v>325523</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M35" s="7">
         <v>516</v>
@@ -6287,13 +6338,13 @@
         <v>563723</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6359,13 @@
         <v>1330006</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H36" s="7">
         <v>1442</v>
@@ -6323,13 +6374,13 @@
         <v>1549362</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>475</v>
+        <v>424</v>
       </c>
       <c r="M36" s="7">
         <v>2684</v>
@@ -6338,13 +6389,13 @@
         <v>2879368</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6410,13 @@
         <v>1540703</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H37" s="7">
         <v>1306</v>
@@ -6374,13 +6425,13 @@
         <v>1410159</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M37" s="7">
         <v>2758</v>
@@ -6389,13 +6440,13 @@
         <v>2950862</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6461,13 @@
         <v>271306</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="H38" s="7">
         <v>199</v>
@@ -6425,13 +6476,13 @@
         <v>214452</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>491</v>
+        <v>121</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="M38" s="7">
         <v>456</v>
@@ -6440,13 +6491,13 @@
         <v>485758</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>69</v>
+        <v>502</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,7 +6524,7 @@
         <v>3287</v>
       </c>
       <c r="I39" s="7">
-        <v>3545037</v>
+        <v>3545036</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -6502,7 +6553,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -6523,7 +6574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD45A6B-755B-4917-8910-F676809426B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40A788-0E7E-4587-918F-91111C3E0208}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6540,7 +6591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6653,7 +6704,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>314</v>
+        <v>505</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6662,13 +6713,13 @@
         <v>897</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>495</v>
+        <v>63</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6677,13 +6728,13 @@
         <v>897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,13 +6749,13 @@
         <v>2933</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>509</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6713,13 +6764,13 @@
         <v>3097</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>512</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>501</v>
+        <v>102</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6728,13 +6779,13 @@
         <v>6030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>397</v>
+        <v>513</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>514</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>200</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6800,13 @@
         <v>41618</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>503</v>
+        <v>517</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>504</v>
+        <v>518</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -6764,13 +6815,13 @@
         <v>46319</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>505</v>
+        <v>519</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="M6" s="7">
         <v>89</v>
@@ -6779,13 +6830,13 @@
         <v>87937</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,13 +6851,13 @@
         <v>64096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -6815,13 +6866,13 @@
         <v>54718</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -6830,13 +6881,13 @@
         <v>118814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>532</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,13 +6902,13 @@
         <v>5403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>519</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6866,13 +6917,13 @@
         <v>7514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>521</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -6881,13 +6932,13 @@
         <v>12917</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6955,13 +7006,13 @@
         <v>3811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -6970,13 +7021,13 @@
         <v>7957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>543</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -6985,13 +7036,13 @@
         <v>11768</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +7057,13 @@
         <v>17593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -7021,13 +7072,13 @@
         <v>27669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -7036,13 +7087,13 @@
         <v>45263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>538</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>539</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>540</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7108,13 @@
         <v>208407</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="H12" s="7">
         <v>237</v>
@@ -7072,13 +7123,13 @@
         <v>242025</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="M12" s="7">
         <v>439</v>
@@ -7087,13 +7138,13 @@
         <v>450432</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>254</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7159,13 @@
         <v>257554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>296</v>
+        <v>561</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="H13" s="7">
         <v>222</v>
@@ -7123,13 +7174,13 @@
         <v>223558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>553</v>
+        <v>260</v>
       </c>
       <c r="M13" s="7">
         <v>469</v>
@@ -7138,13 +7189,13 @@
         <v>481113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>555</v>
+        <v>566</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>556</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7210,13 @@
         <v>66643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -7174,13 +7225,13 @@
         <v>56400</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>501</v>
+        <v>570</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>571</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -7189,13 +7240,13 @@
         <v>123043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7263,13 +7314,13 @@
         <v>3617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>566</v>
+        <v>470</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -7278,13 +7329,13 @@
         <v>13135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>53</v>
+        <v>579</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>580</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7293,13 +7344,13 @@
         <v>16752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>568</v>
+        <v>581</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>569</v>
+        <v>322</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>234</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,13 +7365,13 @@
         <v>17544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>570</v>
+        <v>472</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>63</v>
+        <v>583</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7329,13 +7380,13 @@
         <v>35026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>572</v>
+        <v>585</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>586</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -7344,13 +7395,13 @@
         <v>52570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>574</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,13 +7416,13 @@
         <v>376405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>577</v>
+        <v>488</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
@@ -7380,13 +7431,13 @@
         <v>418817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>477</v>
+        <v>592</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="M18" s="7">
         <v>739</v>
@@ -7395,13 +7446,13 @@
         <v>795222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7467,13 @@
         <v>452964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>583</v>
+        <v>138</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>598</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="H19" s="7">
         <v>390</v>
@@ -7431,28 +7482,28 @@
         <v>413502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="M19" s="7">
         <v>810</v>
       </c>
       <c r="N19" s="7">
-        <v>866466</v>
+        <v>866465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7518,13 @@
         <v>169948</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -7482,13 +7533,13 @@
         <v>160309</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>593</v>
+        <v>609</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="M20" s="7">
         <v>311</v>
@@ -7497,13 +7548,13 @@
         <v>330257</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>598</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,7 +7596,7 @@
         <v>1924</v>
       </c>
       <c r="N21" s="7">
-        <v>2061267</v>
+        <v>2061266</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -7559,7 +7610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7571,13 +7622,13 @@
         <v>4298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>599</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>395</v>
+        <v>615</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -7586,13 +7637,13 @@
         <v>7193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>600</v>
+        <v>319</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -7601,13 +7652,13 @@
         <v>11491</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>23</v>
+        <v>616</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>461</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7622,13 +7673,13 @@
         <v>29803</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -7637,13 +7688,13 @@
         <v>33619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -7652,13 +7703,13 @@
         <v>63422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>624</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>354</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7724,13 @@
         <v>204035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>609</v>
+        <v>626</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="H24" s="7">
         <v>231</v>
@@ -7688,13 +7739,13 @@
         <v>248706</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>611</v>
+        <v>628</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>612</v>
+        <v>629</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>613</v>
+        <v>630</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -7703,13 +7754,13 @@
         <v>452741</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>614</v>
+        <v>631</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>615</v>
+        <v>632</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>616</v>
+        <v>633</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7775,13 @@
         <v>362308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>617</v>
+        <v>634</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>618</v>
+        <v>635</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>619</v>
+        <v>381</v>
       </c>
       <c r="H25" s="7">
         <v>308</v>
@@ -7739,13 +7790,13 @@
         <v>326551</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>622</v>
+        <v>524</v>
       </c>
       <c r="M25" s="7">
         <v>642</v>
@@ -7754,13 +7805,13 @@
         <v>688860</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>295</v>
+        <v>639</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7826,13 @@
         <v>154398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -7790,13 +7841,13 @@
         <v>167893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="M26" s="7">
         <v>300</v>
@@ -7805,13 +7856,13 @@
         <v>322291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>632</v>
+        <v>648</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,7 +7918,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7879,13 +7930,13 @@
         <v>9666</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>61</v>
+        <v>650</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>110</v>
+        <v>651</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>634</v>
+        <v>588</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -7894,13 +7945,13 @@
         <v>12373</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>635</v>
+        <v>652</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>532</v>
+        <v>653</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -7909,13 +7960,13 @@
         <v>22038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>655</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>529</v>
+        <v>656</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7930,13 +7981,13 @@
         <v>32453</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>403</v>
+        <v>657</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>22</v>
+        <v>586</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>197</v>
+        <v>658</v>
       </c>
       <c r="H29" s="7">
         <v>46</v>
@@ -7945,13 +7996,13 @@
         <v>48537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>638</v>
+        <v>120</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -7960,13 +8011,13 @@
         <v>80990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +8032,13 @@
         <v>330751</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="H30" s="7">
         <v>419</v>
@@ -7996,13 +8047,13 @@
         <v>453978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="M30" s="7">
         <v>750</v>
@@ -8011,13 +8062,13 @@
         <v>784729</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8083,13 @@
         <v>464666</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>652</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="H31" s="7">
         <v>381</v>
@@ -8047,13 +8098,13 @@
         <v>418509</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="M31" s="7">
         <v>841</v>
@@ -8062,13 +8113,13 @@
         <v>883175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8134,13 @@
         <v>96270</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -8098,13 +8149,13 @@
         <v>106426</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="M32" s="7">
         <v>193</v>
@@ -8113,13 +8164,13 @@
         <v>202695</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8187,13 +8238,13 @@
         <v>21392</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>66</v>
+        <v>149</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>316</v>
+        <v>688</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>109</v>
+        <v>583</v>
       </c>
       <c r="H34" s="7">
         <v>38</v>
@@ -8202,13 +8253,13 @@
         <v>41554</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="M34" s="7">
         <v>59</v>
@@ -8217,13 +8268,13 @@
         <v>62946</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>635</v>
+        <v>693</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8238,13 +8289,13 @@
         <v>100326</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>673</v>
+        <v>539</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>674</v>
+        <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H35" s="7">
         <v>138</v>
@@ -8253,13 +8304,13 @@
         <v>147949</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -8268,13 +8319,13 @@
         <v>248275</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>696</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>525</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>678</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8340,13 @@
         <v>1161215</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="H36" s="7">
         <v>1323</v>
@@ -8304,13 +8355,13 @@
         <v>1409845</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>577</v>
+        <v>700</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>683</v>
+        <v>561</v>
       </c>
       <c r="M36" s="7">
         <v>2434</v>
@@ -8319,13 +8370,13 @@
         <v>2571060</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>685</v>
+        <v>596</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>686</v>
+        <v>703</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8340,13 +8391,13 @@
         <v>1601587</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>687</v>
+        <v>704</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>688</v>
+        <v>705</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="H37" s="7">
         <v>1357</v>
@@ -8355,13 +8406,13 @@
         <v>1436840</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>337</v>
+        <v>708</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="M37" s="7">
         <v>2880</v>
@@ -8370,13 +8421,13 @@
         <v>3038427</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8442,13 @@
         <v>492660</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
       <c r="H38" s="7">
         <v>472</v>
@@ -8406,13 +8457,13 @@
         <v>498542</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="M38" s="7">
         <v>938</v>
@@ -8421,13 +8472,13 @@
         <v>991203</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>701</v>
+        <v>607</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8483,7 +8534,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A49E83E-C656-4CE5-97EA-8F38FBEA4DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFA4EF9F-8C3D-45AC-9653-EEC9112274B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1255B6DE-B3C1-4035-B19D-83068BC3DC0E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E16EB521-928C-4B75-8F12-F5FA181C3CC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="714">
   <si>
     <t>Población según la frecuencia de consumo de carne en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -85,13 +85,13 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,94%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,97%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -100,670 +100,1999 @@
     <t>3,99%</t>
   </si>
   <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>2,41%</t>
   </si>
   <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>51,49%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
     <t>1,4%</t>
   </si>
   <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
     <t>6,77%</t>
   </si>
   <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>44,84%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>48,49%</t>
   </si>
   <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>47,2%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
   </si>
   <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>53,85%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
+    <t>4,19%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -772,1435 +2101,85 @@
     <t>4,91%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
   </si>
   <si>
     <t>41,74%</t>
   </si>
   <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2012 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>44,49%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>Población según la frecuencia de consumo de carne en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,67%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
   </si>
   <si>
     <t>14,34%</t>
   </si>
   <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>47,1%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>36,29%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
   </si>
 </sst>
 </file>
@@ -2612,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0008693C-EAF9-43EC-8FF3-0657F620E37B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B02BC45-2C20-4017-AD6C-6AA87CA8FB0F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3080,7 +3059,7 @@
         <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3074,13 @@
         <v>25228</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -3110,13 +3089,13 @@
         <v>21476</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -3125,13 +3104,13 @@
         <v>46704</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3125,13 @@
         <v>185737</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H12" s="7">
         <v>233</v>
@@ -3161,13 +3140,13 @@
         <v>236527</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>420</v>
@@ -3176,13 +3155,13 @@
         <v>422264</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3176,13 @@
         <v>288087</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>294</v>
@@ -3212,13 +3191,13 @@
         <v>297652</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>579</v>
@@ -3227,13 +3206,13 @@
         <v>585739</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3248,13 +3227,13 @@
         <v>76679</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>19</v>
@@ -3263,13 +3242,13 @@
         <v>19015</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -3278,13 +3257,13 @@
         <v>95695</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,7 +3319,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3352,13 +3331,13 @@
         <v>5850</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3367,13 +3346,13 @@
         <v>11969</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3382,13 +3361,13 @@
         <v>17819</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,13 +3382,13 @@
         <v>34911</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -3418,13 +3397,13 @@
         <v>48165</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3433,13 +3412,13 @@
         <v>83075</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3433,13 @@
         <v>380736</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>411</v>
@@ -3469,13 +3448,13 @@
         <v>442768</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>765</v>
@@ -3484,13 +3463,13 @@
         <v>823505</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,13 +3484,13 @@
         <v>464644</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>412</v>
@@ -3520,13 +3499,13 @@
         <v>433057</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>844</v>
@@ -3535,13 +3514,13 @@
         <v>897701</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,13 +3535,13 @@
         <v>74674</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3571,13 +3550,13 @@
         <v>30375</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>97</v>
@@ -3586,13 +3565,13 @@
         <v>105049</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,7 +3627,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3660,7 +3639,7 @@
         <v>9506</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>149</v>
@@ -3726,7 +3705,7 @@
         <v>34042</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>160</v>
@@ -3744,10 +3723,10 @@
         <v>162</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3741,13 @@
         <v>316412</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H24" s="7">
         <v>348</v>
@@ -3777,13 +3756,13 @@
         <v>340258</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M24" s="7">
         <v>649</v>
@@ -3792,13 +3771,13 @@
         <v>656670</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3792,13 @@
         <v>286210</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -3828,13 +3807,13 @@
         <v>281393</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>552</v>
@@ -3843,13 +3822,13 @@
         <v>567603</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3843,13 @@
         <v>37876</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>18</v>
@@ -3894,13 +3873,13 @@
         <v>55198</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>68</v>
+        <v>188</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3935,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3968,10 +3947,10 @@
         <v>10814</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>192</v>
@@ -4001,10 +3980,10 @@
         <v>196</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +3998,13 @@
         <v>45284</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>61</v>
@@ -4034,13 +4013,13 @@
         <v>65971</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>109</v>
@@ -4049,13 +4028,13 @@
         <v>111254</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,13 +4049,13 @@
         <v>392561</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H30" s="7">
         <v>460</v>
@@ -4085,13 +4064,13 @@
         <v>478632</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M30" s="7">
         <v>873</v>
@@ -4100,13 +4079,13 @@
         <v>871194</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,13 +4100,13 @@
         <v>432697</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>408</v>
@@ -4136,13 +4115,13 @@
         <v>420308</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>869</v>
@@ -4151,13 +4130,13 @@
         <v>853005</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4151,13 @@
         <v>60011</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>116</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>49</v>
@@ -4187,13 +4166,13 @@
         <v>53512</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M32" s="7">
         <v>110</v>
@@ -4202,13 +4181,13 @@
         <v>113523</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,13 +4255,13 @@
         <v>28153</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H34" s="7">
         <v>44</v>
@@ -4291,13 +4270,13 @@
         <v>44795</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M34" s="7">
         <v>69</v>
@@ -4306,13 +4285,13 @@
         <v>72947</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>152</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4306,13 @@
         <v>137767</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
         <v>165</v>
@@ -4342,13 +4321,13 @@
         <v>172369</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="M35" s="7">
         <v>303</v>
@@ -4357,13 +4336,13 @@
         <v>310136</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4357,13 @@
         <v>1314131</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>1498</v>
@@ -4393,13 +4372,13 @@
         <v>1539200</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>2790</v>
@@ -4408,13 +4387,13 @@
         <v>2853331</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4408,13 @@
         <v>1523094</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>1472</v>
@@ -4444,13 +4423,13 @@
         <v>1497868</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M37" s="7">
         <v>2965</v>
@@ -4501,7 +4480,7 @@
         <v>269</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="M38" s="7">
         <v>378</v>
@@ -4510,13 +4489,13 @@
         <v>392756</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4551,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -4593,7 +4572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A822BAB4-537A-4792-A08C-4D45C63A99C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D023F76C-3E2C-4E2A-BE07-AD669DA7D133}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4610,7 +4589,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4717,7 +4696,7 @@
         <v>2521</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>275</v>
@@ -4735,7 +4714,7 @@
         <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>278</v>
@@ -4750,10 +4729,10 @@
         <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,7 +4834,7 @@
         <v>297</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4849,13 @@
         <v>48865</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H7" s="7">
         <v>40</v>
@@ -4885,13 +4864,13 @@
         <v>44184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
         <v>92</v>
@@ -4900,13 +4879,13 @@
         <v>93048</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4900,13 @@
         <v>12328</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>8</v>
@@ -4936,13 +4915,13 @@
         <v>8620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>21</v>
@@ -4951,13 +4930,13 @@
         <v>20948</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5004,13 @@
         <v>4535</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5040,13 +5019,13 @@
         <v>6290</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>318</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>320</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5055,13 +5034,13 @@
         <v>10825</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5055,13 @@
         <v>51173</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -5091,13 +5070,13 @@
         <v>60587</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -5106,13 +5085,13 @@
         <v>111760</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5106,13 @@
         <v>241944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>334</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H12" s="7">
         <v>234</v>
@@ -5142,13 +5121,13 @@
         <v>247662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M12" s="7">
         <v>460</v>
@@ -5157,13 +5136,13 @@
         <v>489606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5178,13 +5157,13 @@
         <v>239591</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H13" s="7">
         <v>227</v>
@@ -5193,13 +5172,13 @@
         <v>240233</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
       <c r="M13" s="7">
         <v>456</v>
@@ -5208,13 +5187,13 @@
         <v>479824</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>345</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5229,13 +5208,13 @@
         <v>49336</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
@@ -5244,13 +5223,13 @@
         <v>28460</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>72</v>
@@ -5259,13 +5238,13 @@
         <v>77796</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,7 +5300,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5333,13 +5312,13 @@
         <v>2059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5348,13 +5327,13 @@
         <v>7521</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>53</v>
+        <v>356</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>360</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5363,13 +5342,13 @@
         <v>9581</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>362</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5363,13 @@
         <v>65155</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>364</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H17" s="7">
         <v>93</v>
@@ -5399,13 +5378,13 @@
         <v>100528</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="M17" s="7">
         <v>154</v>
@@ -5414,13 +5393,13 @@
         <v>165683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5435,13 +5414,13 @@
         <v>382725</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>368</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="H18" s="7">
         <v>390</v>
@@ -5450,13 +5429,13 @@
         <v>427143</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="M18" s="7">
         <v>743</v>
@@ -5465,13 +5444,13 @@
         <v>809868</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,13 +5465,13 @@
         <v>489183</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>376</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H19" s="7">
         <v>373</v>
@@ -5501,28 +5480,28 @@
         <v>410536</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
         <v>823</v>
       </c>
       <c r="N19" s="7">
-        <v>899720</v>
+        <v>899719</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5537,13 +5516,13 @@
         <v>69705</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>388</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H20" s="7">
         <v>75</v>
@@ -5552,13 +5531,13 @@
         <v>83247</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>138</v>
@@ -5567,13 +5546,13 @@
         <v>152953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,7 +5594,7 @@
         <v>1866</v>
       </c>
       <c r="N21" s="7">
-        <v>2037804</v>
+        <v>2037803</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -5629,7 +5608,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5641,13 +5620,13 @@
         <v>10657</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>391</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -5656,13 +5635,13 @@
         <v>11246</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -5671,13 +5650,13 @@
         <v>21903</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>321</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,13 +5671,13 @@
         <v>38628</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>400</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -5707,13 +5686,13 @@
         <v>57489</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>403</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>404</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M23" s="7">
         <v>82</v>
@@ -5722,13 +5701,13 @@
         <v>96116</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>406</v>
+        <v>348</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>99</v>
+        <v>241</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,13 +5722,13 @@
         <v>297124</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="H24" s="7">
         <v>322</v>
@@ -5758,13 +5737,13 @@
         <v>352659</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="M24" s="7">
         <v>594</v>
@@ -5773,13 +5752,13 @@
         <v>649783</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5773,13 @@
         <v>344808</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="H25" s="7">
         <v>283</v>
@@ -5809,13 +5788,13 @@
         <v>312617</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M25" s="7">
         <v>599</v>
@@ -5824,13 +5803,13 @@
         <v>657425</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5824,13 @@
         <v>63280</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>226</v>
+        <v>419</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -5860,13 +5839,13 @@
         <v>39979</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>117</v>
+        <v>421</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
       <c r="M26" s="7">
         <v>94</v>
@@ -5875,13 +5854,13 @@
         <v>103260</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,7 +5916,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5949,13 +5928,13 @@
         <v>10637</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="H28" s="7">
         <v>15</v>
@@ -5964,13 +5943,13 @@
         <v>17001</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>360</v>
+        <v>428</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="M28" s="7">
         <v>24</v>
@@ -5979,13 +5958,13 @@
         <v>27638</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>431</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +5979,13 @@
         <v>70840</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>434</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -6015,13 +5994,13 @@
         <v>92542</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>155</v>
@@ -6030,13 +6009,13 @@
         <v>163382</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6051,13 +6030,13 @@
         <v>369435</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H30" s="7">
         <v>460</v>
@@ -6066,13 +6045,13 @@
         <v>480656</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M30" s="7">
         <v>809</v>
@@ -6081,13 +6060,13 @@
         <v>850091</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>452</v>
+        <v>124</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6102,13 +6081,13 @@
         <v>418256</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="H31" s="7">
         <v>383</v>
@@ -6117,13 +6096,13 @@
         <v>402589</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>460</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>788</v>
@@ -6132,13 +6111,13 @@
         <v>820845</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6153,13 +6132,13 @@
         <v>76656</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -6168,13 +6147,13 @@
         <v>54146</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>427</v>
+        <v>246</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>466</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="M32" s="7">
         <v>131</v>
@@ -6183,13 +6162,13 @@
         <v>130802</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>310</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6257,13 +6236,13 @@
         <v>30408</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>395</v>
+        <v>231</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>464</v>
       </c>
       <c r="H34" s="7">
         <v>40</v>
@@ -6272,13 +6251,13 @@
         <v>45541</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="M34" s="7">
         <v>68</v>
@@ -6287,13 +6266,13 @@
         <v>75950</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6308,13 +6287,13 @@
         <v>238201</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H35" s="7">
         <v>300</v>
@@ -6323,13 +6302,13 @@
         <v>325523</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>478</v>
+        <v>265</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="M35" s="7">
         <v>516</v>
@@ -6338,13 +6317,13 @@
         <v>563723</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6359,13 +6338,13 @@
         <v>1330006</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>482</v>
+        <v>454</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="H36" s="7">
         <v>1442</v>
@@ -6374,13 +6353,13 @@
         <v>1549362</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="M36" s="7">
         <v>2684</v>
@@ -6389,13 +6368,13 @@
         <v>2879368</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6410,13 +6389,13 @@
         <v>1540703</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H37" s="7">
         <v>1306</v>
@@ -6425,13 +6404,13 @@
         <v>1410159</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M37" s="7">
         <v>2758</v>
@@ -6440,13 +6419,13 @@
         <v>2950862</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6461,13 +6440,13 @@
         <v>271306</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="H38" s="7">
         <v>199</v>
@@ -6476,13 +6455,13 @@
         <v>214452</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>141</v>
+        <v>496</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="M38" s="7">
         <v>456</v>
@@ -6491,13 +6470,13 @@
         <v>485758</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>502</v>
+        <v>324</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6503,7 @@
         <v>3287</v>
       </c>
       <c r="I39" s="7">
-        <v>3545036</v>
+        <v>3545037</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>58</v>
@@ -6553,7 +6532,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -6574,7 +6553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B40A788-0E7E-4587-918F-91111C3E0208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B71527CE-0245-48F7-9E04-31748EA02F45}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6591,7 +6570,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6704,7 +6683,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>505</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -6713,13 +6692,13 @@
         <v>897</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>500</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -6728,13 +6707,13 @@
         <v>897</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>508</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,13 +6728,13 @@
         <v>2933</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>509</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>510</v>
+        <v>392</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6764,13 +6743,13 @@
         <v>3097</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>512</v>
+        <v>150</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>503</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -6779,13 +6758,13 @@
         <v>6030</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>515</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,13 +6779,13 @@
         <v>41618</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H6" s="7">
         <v>48</v>
@@ -6815,13 +6794,13 @@
         <v>46319</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M6" s="7">
         <v>89</v>
@@ -6830,13 +6809,13 @@
         <v>87937</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,13 +6830,13 @@
         <v>64096</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="H7" s="7">
         <v>56</v>
@@ -6866,13 +6845,13 @@
         <v>54718</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -6881,13 +6860,13 @@
         <v>118814</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,13 +6881,13 @@
         <v>5403</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>524</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -6917,13 +6896,13 @@
         <v>7514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>526</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -6932,13 +6911,13 @@
         <v>12917</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>539</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>540</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,13 +6985,13 @@
         <v>3811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -7021,13 +7000,13 @@
         <v>7957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>510</v>
+        <v>533</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -7036,13 +7015,13 @@
         <v>11768</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7036,13 @@
         <v>17593</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>539</v>
       </c>
       <c r="H11" s="7">
         <v>26</v>
@@ -7072,13 +7051,13 @@
         <v>27669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>364</v>
+        <v>540</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="M11" s="7">
         <v>42</v>
@@ -7087,13 +7066,13 @@
         <v>45263</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>506</v>
+        <v>543</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>404</v>
+        <v>545</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7087,13 @@
         <v>208407</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H12" s="7">
         <v>237</v>
@@ -7123,13 +7102,13 @@
         <v>242025</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>554</v>
+        <v>485</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="M12" s="7">
         <v>439</v>
@@ -7138,13 +7117,13 @@
         <v>450432</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,13 +7138,13 @@
         <v>257554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="H13" s="7">
         <v>222</v>
@@ -7174,13 +7153,13 @@
         <v>223558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>260</v>
+        <v>559</v>
       </c>
       <c r="M13" s="7">
         <v>469</v>
@@ -7189,13 +7168,13 @@
         <v>481113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,13 +7189,13 @@
         <v>66643</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -7225,13 +7204,13 @@
         <v>56400</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>570</v>
+        <v>388</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="M14" s="7">
         <v>122</v>
@@ -7240,13 +7219,13 @@
         <v>123043</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7302,7 +7281,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7314,13 +7293,13 @@
         <v>3617</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>470</v>
+        <v>573</v>
       </c>
       <c r="H16" s="7">
         <v>12</v>
@@ -7329,13 +7308,13 @@
         <v>13135</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>580</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -7344,13 +7323,13 @@
         <v>16752</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>322</v>
+        <v>576</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>582</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7365,13 +7344,13 @@
         <v>17544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>472</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>583</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>584</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7380,13 +7359,13 @@
         <v>35026</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -7395,13 +7374,13 @@
         <v>52570</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>580</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7395,13 @@
         <v>376405</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>488</v>
+        <v>585</v>
       </c>
       <c r="H18" s="7">
         <v>388</v>
@@ -7431,13 +7410,13 @@
         <v>418817</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>592</v>
+        <v>561</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="M18" s="7">
         <v>739</v>
@@ -7446,13 +7425,13 @@
         <v>795222</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7446,13 @@
         <v>452964</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>590</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="H19" s="7">
         <v>390</v>
@@ -7482,28 +7461,28 @@
         <v>413502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="M19" s="7">
         <v>810</v>
       </c>
       <c r="N19" s="7">
-        <v>866465</v>
+        <v>866466</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7518,13 +7497,13 @@
         <v>169948</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H20" s="7">
         <v>153</v>
@@ -7533,13 +7512,13 @@
         <v>160309</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M20" s="7">
         <v>311</v>
@@ -7548,13 +7527,13 @@
         <v>330257</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7596,7 +7575,7 @@
         <v>1924</v>
       </c>
       <c r="N21" s="7">
-        <v>2061266</v>
+        <v>2061267</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>58</v>
@@ -7610,7 +7589,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7622,13 +7601,13 @@
         <v>4298</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>607</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>608</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -7637,13 +7616,13 @@
         <v>7193</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>610</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -7652,13 +7631,13 @@
         <v>11491</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>616</v>
+        <v>23</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>60</v>
+        <v>611</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7652,13 @@
         <v>29803</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>509</v>
+        <v>614</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>619</v>
+        <v>276</v>
       </c>
       <c r="H23" s="7">
         <v>32</v>
@@ -7688,13 +7667,13 @@
         <v>33619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -7703,13 +7682,13 @@
         <v>63422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7703,13 @@
         <v>204035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="H24" s="7">
         <v>231</v>
@@ -7739,13 +7718,13 @@
         <v>248706</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="M24" s="7">
         <v>417</v>
@@ -7754,13 +7733,13 @@
         <v>452741</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>631</v>
+        <v>36</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,13 +7754,13 @@
         <v>362308</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>634</v>
+        <v>134</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>381</v>
+        <v>301</v>
       </c>
       <c r="H25" s="7">
         <v>308</v>
@@ -7790,13 +7769,13 @@
         <v>326551</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>636</v>
+        <v>213</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>524</v>
+        <v>631</v>
       </c>
       <c r="M25" s="7">
         <v>642</v>
@@ -7805,13 +7784,13 @@
         <v>688860</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,13 +7805,13 @@
         <v>154398</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H26" s="7">
         <v>158</v>
@@ -7841,13 +7820,13 @@
         <v>167893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="M26" s="7">
         <v>300</v>
@@ -7856,13 +7835,13 @@
         <v>322291</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7918,7 +7897,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7930,13 +7909,13 @@
         <v>9666</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>650</v>
+        <v>61</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>588</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -7945,13 +7924,13 @@
         <v>12373</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>653</v>
+        <v>275</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -7960,13 +7939,13 @@
         <v>22038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7981,13 +7960,13 @@
         <v>32453</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>657</v>
+        <v>582</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>586</v>
+        <v>22</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>658</v>
+        <v>649</v>
       </c>
       <c r="H29" s="7">
         <v>46</v>
@@ -7996,13 +7975,13 @@
         <v>48537</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>120</v>
+        <v>651</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -8011,13 +7990,13 @@
         <v>80990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8032,13 +8011,13 @@
         <v>330751</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="H30" s="7">
         <v>419</v>
@@ -8047,13 +8026,13 @@
         <v>453978</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>666</v>
+        <v>492</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="M30" s="7">
         <v>750</v>
@@ -8062,13 +8041,13 @@
         <v>784729</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>671</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8083,13 +8062,13 @@
         <v>464666</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>165</v>
+        <v>662</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>672</v>
+        <v>663</v>
       </c>
       <c r="H31" s="7">
         <v>381</v>
@@ -8098,13 +8077,13 @@
         <v>418509</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>675</v>
+        <v>666</v>
       </c>
       <c r="M31" s="7">
         <v>841</v>
@@ -8113,13 +8092,13 @@
         <v>883175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>677</v>
+        <v>490</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8113,13 @@
         <v>96270</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="H32" s="7">
         <v>98</v>
@@ -8149,13 +8128,13 @@
         <v>106426</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>682</v>
+        <v>473</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="M32" s="7">
         <v>193</v>
@@ -8164,13 +8143,13 @@
         <v>202695</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8241,10 +8220,10 @@
         <v>149</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>688</v>
+        <v>502</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>583</v>
+        <v>677</v>
       </c>
       <c r="H34" s="7">
         <v>38</v>
@@ -8253,13 +8232,13 @@
         <v>41554</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="M34" s="7">
         <v>59</v>
@@ -8268,13 +8247,13 @@
         <v>62946</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>510</v>
+        <v>392</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>693</v>
+        <v>645</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8289,13 +8268,13 @@
         <v>100326</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>539</v>
+        <v>682</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>200</v>
+        <v>683</v>
       </c>
       <c r="H35" s="7">
         <v>138</v>
@@ -8304,13 +8283,13 @@
         <v>147949</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M35" s="7">
         <v>232</v>
@@ -8319,10 +8298,10 @@
         <v>248275</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>15</v>
+        <v>688</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>157</v>
@@ -8340,13 +8319,13 @@
         <v>1161215</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="H36" s="7">
         <v>1323</v>
@@ -8355,13 +8334,13 @@
         <v>1409845</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>701</v>
+        <v>657</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>561</v>
+        <v>693</v>
       </c>
       <c r="M36" s="7">
         <v>2434</v>
@@ -8370,13 +8349,13 @@
         <v>2571060</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>596</v>
+        <v>695</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8391,13 +8370,13 @@
         <v>1601587</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="H37" s="7">
         <v>1357</v>
@@ -8406,13 +8385,13 @@
         <v>1436840</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>709</v>
+        <v>173</v>
       </c>
       <c r="M37" s="7">
         <v>2880</v>
@@ -8421,13 +8400,13 @@
         <v>3038427</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8442,13 +8421,13 @@
         <v>492660</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="H38" s="7">
         <v>472</v>
@@ -8457,13 +8436,13 @@
         <v>498542</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="M38" s="7">
         <v>938</v>
@@ -8472,13 +8451,13 @@
         <v>991203</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>607</v>
+        <v>711</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8534,7 +8513,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
